--- a/SN9-SN10 i2c & pins.xlsx
+++ b/SN9-SN10 i2c & pins.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="MQTT topics" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="TODO" sheetId="2" state="hidden" r:id="rId3"/>
-    <sheet name="SN9 Pins" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="SN10 Pins" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Messaging" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Actions" sheetId="5" state="hidden" r:id="rId6"/>
     <sheet name="SN2 Pins" sheetId="6" state="hidden" r:id="rId7"/>
@@ -1476,7 +1476,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1549,14 +1549,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1574,10 +1566,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1585,19 +1573,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1607,18 +1583,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1792,9 +1756,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>499680</xdr:colOff>
+      <xdr:colOff>499320</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1808,7 +1772,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5400720" y="0"/>
-          <a:ext cx="8829360" cy="4667040"/>
+          <a:ext cx="8829000" cy="4666680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1838,9 +1802,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>499320</xdr:colOff>
+      <xdr:colOff>498960</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1854,7 +1818,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5400360" y="0"/>
-          <a:ext cx="8829360" cy="4667040"/>
+          <a:ext cx="8829000" cy="4666680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1880,9 +1844,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>499320</xdr:colOff>
+      <xdr:colOff>498960</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1896,7 +1860,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5400360" y="0"/>
-          <a:ext cx="8829360" cy="4667040"/>
+          <a:ext cx="8829000" cy="4666680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1922,9 +1886,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>499320</xdr:colOff>
+      <xdr:colOff>498960</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1938,7 +1902,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5400360" y="0"/>
-          <a:ext cx="8829360" cy="4667040"/>
+          <a:ext cx="8829000" cy="4666680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1964,7 +1928,7 @@
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.86"/>
@@ -30099,7 +30063,7 @@
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.23828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.23046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
@@ -30135,16 +30099,16 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="0" width="7.62"/>
@@ -30331,7 +30295,7 @@
       <c r="D13" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="15" t="s">
         <v>147</v>
       </c>
     </row>
@@ -30357,7 +30321,7 @@
       <c r="D15" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
@@ -30370,7 +30334,7 @@
       <c r="D16" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="18"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15"/>
@@ -30379,7 +30343,6 @@
         <v>155</v>
       </c>
       <c r="D17" s="15"/>
-      <c r="E17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15"/>
@@ -30443,7 +30406,7 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="18" t="s">
         <v>156</v>
       </c>
     </row>
@@ -30464,7 +30427,7 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="21"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="16"/>
@@ -34358,78 +34321,77 @@
       <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.23828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.23046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="41.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="15.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="17.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="20" width="41.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="20" width="15.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="55.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.61"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="true" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
+    <row r="1" s="21" customFormat="true" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" s="28" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
+    <row r="2" s="24" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="8" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="8" t="s">
         <v>169</v>
       </c>
     </row>
@@ -34437,10 +34399,10 @@
       <c r="A4" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="20" t="s">
         <v>172</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -34454,10 +34416,10 @@
       <c r="A5" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="20" t="s">
         <v>172</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -34471,7 +34433,7 @@
       <c r="A6" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="22" t="s">
         <v>178</v>
       </c>
       <c r="D6" s="9"/>
@@ -34487,13 +34449,13 @@
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="4" t="s">
         <v>183</v>
       </c>
@@ -34505,10 +34467,10 @@
       <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="22" t="s">
         <v>186</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -34522,10 +34484,10 @@
       <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>190</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -34539,7 +34501,7 @@
       <c r="A10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="22" t="s">
         <v>192</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -34553,7 +34515,7 @@
       <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="22" t="s">
         <v>194</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -34564,127 +34526,124 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="15" s="9" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="29" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="27" t="s">
+      <c r="E15" s="20"/>
+      <c r="F15" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="16" s="27" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="s">
+    <row r="16" s="9" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="29" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="27" t="s">
+      <c r="E16" s="20"/>
+      <c r="F16" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="17" s="31" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="s">
+    <row r="17" s="25" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="29" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="27" t="s">
+      <c r="E17" s="20"/>
+      <c r="F17" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" s="31" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="32" t="s">
+    <row r="18" s="25" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="D18" s="30"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="16" t="s">
         <v>216</v>
       </c>
@@ -34695,39 +34654,39 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" s="31" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="33" t="s">
+    <row r="19" s="25" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="34" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="20" s="31" customFormat="true" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="25" customFormat="true" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="30" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="22" t="s">
         <v>221</v>
       </c>
       <c r="F20" s="8" t="s">
@@ -34737,18 +34696,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" s="31" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="30" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="E21" s="30"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="8" t="s">
         <v>226</v>
       </c>
@@ -34756,35 +34715,35 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" s="31" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="30" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="E22" s="30"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="25" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="23" s="31" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="8" t="s">
         <v>231</v>
       </c>
@@ -34792,38 +34751,38 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" s="35" customFormat="true" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="35" t="s">
+    <row r="24" s="11" customFormat="true" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="36" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="35" t="s">
+      <c r="E24" s="27"/>
+      <c r="F24" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="11" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="25" s="35" customFormat="true" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="35" t="s">
+    <row r="25" s="11" customFormat="true" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="36" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="G25" s="35" t="s">
+      <c r="E25" s="27"/>
+      <c r="G25" s="11" t="s">
         <v>236</v>
       </c>
     </row>
@@ -34831,12 +34790,12 @@
       <c r="A26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="8" t="s">
         <v>240</v>
       </c>
@@ -34848,12 +34807,12 @@
       <c r="A27" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="8" t="s">
         <v>242</v>
       </c>
@@ -34865,14 +34824,14 @@
       <c r="A28" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="37"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="8" t="s">
         <v>244</v>
       </c>
@@ -34884,12 +34843,12 @@
       <c r="A29" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="37"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="8" t="s">
         <v>244</v>
       </c>
@@ -34901,10 +34860,10 @@
       <c r="A30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="C30" s="25"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="16" t="s">
         <v>248</v>
       </c>
@@ -34918,117 +34877,117 @@
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="8" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="8" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25" t="s">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="35" s="31" customFormat="true" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="s">
+    <row r="35" s="25" customFormat="true" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="29" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="27" t="s">
+      <c r="E35" s="20"/>
+      <c r="F35" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="36" s="31" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24" t="s">
+    <row r="36" s="25" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="G36" s="24" t="s">
+      <c r="E36" s="22"/>
+      <c r="G36" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="37" s="31" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24" t="s">
+    <row r="37" s="25" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="G37" s="24" t="s">
+      <c r="E37" s="22"/>
+      <c r="G37" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="38" s="31" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="24" t="s">
+    <row r="38" s="25" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="E38" s="25"/>
-      <c r="G38" s="24" t="s">
+      <c r="E38" s="22"/>
+      <c r="G38" s="8" t="s">
         <v>236</v>
       </c>
     </row>
@@ -35036,12 +34995,12 @@
       <c r="A39" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="30" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="E39" s="30"/>
+      <c r="E39" s="22"/>
       <c r="G39" s="8" t="s">
         <v>236</v>
       </c>
@@ -35050,8 +35009,8 @@
       <c r="A40" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
       <c r="F40" s="8" t="s">
         <v>262</v>
       </c>
@@ -35063,9 +35022,9 @@
       <c r="A41" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="22" t="s">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="20" t="s">
         <v>263</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -35079,9 +35038,9 @@
       <c r="A42" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="22" t="s">
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="20" t="s">
         <v>265</v>
       </c>
       <c r="F42" s="9" t="s">
@@ -35095,9 +35054,9 @@
       <c r="A43" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="22" t="s">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="20" t="s">
         <v>265</v>
       </c>
       <c r="F43" s="9" t="s">
@@ -35111,8 +35070,8 @@
       <c r="A44" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
       <c r="F44" s="9" t="s">
         <v>268</v>
       </c>
@@ -35124,10 +35083,10 @@
       <c r="A45" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D45" s="16"/>
@@ -35143,8 +35102,8 @@
       <c r="A46" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22" t="s">
         <v>271</v>
       </c>
       <c r="D46" s="16"/>
@@ -35160,10 +35119,10 @@
       <c r="A47" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="20" t="s">
         <v>273</v>
       </c>
     </row>
@@ -35171,10 +35130,10 @@
       <c r="A48" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="20" t="s">
         <v>275</v>
       </c>
     </row>
@@ -35182,7 +35141,7 @@
       <c r="A49" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="22" t="s">
         <v>276</v>
       </c>
     </row>
@@ -35190,10 +35149,10 @@
       <c r="A50" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="20" t="s">
         <v>265</v>
       </c>
     </row>
@@ -35201,10 +35160,10 @@
       <c r="A51" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="20" t="s">
         <v>265</v>
       </c>
     </row>
@@ -35236,7 +35195,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.86"/>
@@ -35345,7 +35304,7 @@
       <c r="C6" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="29" t="s">
         <v>296</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -36952,13 +36911,13 @@
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="0" width="7.62"/>
@@ -36980,7 +36939,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="30" t="s">
         <v>359</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -36989,12 +36948,12 @@
       <c r="D2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="30" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="31" t="s">
         <v>110</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -37003,12 +36962,12 @@
       <c r="D3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="32" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="31" t="s">
         <v>106</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -37017,12 +36976,12 @@
       <c r="D4" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="31" t="s">
         <v>125</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -37031,12 +36990,12 @@
       <c r="D5" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="33" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="31" t="s">
         <v>121</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -37045,7 +37004,7 @@
       <c r="D6" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="32" t="s">
         <v>138</v>
       </c>
     </row>
@@ -37059,7 +37018,7 @@
       <c r="D7" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="34" t="s">
         <v>362</v>
       </c>
     </row>
@@ -37073,12 +37032,12 @@
       <c r="D8" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="35" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="36" t="s">
         <v>365</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -37087,12 +37046,12 @@
       <c r="D9" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="30" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="36" t="s">
         <v>365</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -37106,7 +37065,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="37" t="s">
         <v>368</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -37115,10 +37074,10 @@
       <c r="D11" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="47"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="33" t="s">
         <v>369</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -37127,24 +37086,24 @@
       <c r="D12" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="34" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="42"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="16" t="s">
         <v>145</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="39" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="40" t="s">
         <v>372</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -37153,22 +37112,22 @@
       <c r="D14" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="33" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="50"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="16" t="s">
         <v>151</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="42"/>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="43" t="s">
         <v>152</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -37177,7 +37136,7 @@
       <c r="D16" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="16"/>
@@ -37199,28 +37158,28 @@
       <c r="D20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="37" t="s">
         <v>163</v>
       </c>
       <c r="B21" s="16"/>
       <c r="D21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="39" t="s">
         <v>373</v>
       </c>
       <c r="B22" s="16"/>
       <c r="D22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="33" t="s">
         <v>374</v>
       </c>
       <c r="B23" s="16"/>
       <c r="D23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="31" t="s">
         <v>375</v>
       </c>
       <c r="B24" s="16"/>
@@ -37232,7 +37191,7 @@
       </c>
       <c r="B25" s="16"/>
       <c r="D25" s="16"/>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="18" t="s">
         <v>156</v>
       </c>
     </row>
@@ -37244,22 +37203,22 @@
       <c r="D26" s="16"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="44" t="s">
         <v>377</v>
       </c>
       <c r="B27" s="16"/>
       <c r="D27" s="16"/>
-      <c r="G27" s="54"/>
+      <c r="G27" s="45"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="46" t="s">
         <v>378</v>
       </c>
       <c r="B28" s="16"/>
       <c r="D28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="43" t="s">
         <v>379</v>
       </c>
       <c r="B29" s="16"/>
@@ -37268,12 +37227,12 @@
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="16"/>
       <c r="D30" s="16"/>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="39" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="40" t="s">
         <v>381</v>
       </c>
       <c r="B31" s="16"/>
@@ -41177,13 +41136,13 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="0" width="7.62"/>
@@ -41479,7 +41438,7 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="18" t="s">
         <v>156</v>
       </c>
     </row>
@@ -41500,7 +41459,7 @@
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="21"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="16"/>
@@ -45394,13 +45353,13 @@
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="0" width="7.62"/>
@@ -45453,7 +45412,7 @@
       <c r="D4" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="33" t="s">
         <v>114</v>
       </c>
     </row>
@@ -45467,7 +45426,7 @@
       <c r="D5" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="33" t="s">
         <v>117</v>
       </c>
     </row>
@@ -45571,17 +45530,17 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="50"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="16" t="s">
         <v>151</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="42"/>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="43" t="s">
         <v>152</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -45590,7 +45549,7 @@
       <c r="D16" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="51"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="16"/>
@@ -45656,7 +45615,7 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="18" t="s">
         <v>156</v>
       </c>
     </row>
@@ -49570,23 +49529,23 @@
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.23828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.23046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" s="57" customFormat="true" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
+    <row r="1" s="48" customFormat="true" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="47" t="s">
         <v>388</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="48" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="n">
+      <c r="A2" s="20" t="n">
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -49597,7 +49556,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="n">
+      <c r="A3" s="20" t="n">
         <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -49608,7 +49567,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="n">
+      <c r="A4" s="20" t="n">
         <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -49616,7 +49575,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="n">
+      <c r="A5" s="20" t="n">
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -49627,7 +49586,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="n">
+      <c r="A6" s="20" t="n">
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -49638,7 +49597,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="n">
+      <c r="A7" s="20" t="n">
         <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -49649,7 +49608,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="n">
+      <c r="A8" s="20" t="n">
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
